--- a/CP/T-beta-CP/stress/bStress.xlsx
+++ b/CP/T-beta-CP/stress/bStress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A研究生\computer_data\CP\T-beta-CP\stress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\computer_data\CP\T-beta-CP\stress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D8F98D-1117-4573-BB3E-4C9EF82807D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34A255F-23A9-4E49-9F9A-5575B3106589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,15 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -402,15 +402,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>5.0625137752217801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="C2">
+        <v>6.0600000000000003E-3</v>
+      </c>
+      <c r="D2">
+        <v>-0.14293</v>
+      </c>
+      <c r="G2">
+        <v>7.0699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.05</v>
       </c>
@@ -423,14 +432,17 @@
       <c r="D3">
         <v>-0.13406999999999999</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3">
         <v>8.2199999999999999E-3</v>
       </c>
-      <c r="I3">
-        <v>5.315639463982869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.1</v>
       </c>
@@ -443,43 +455,106 @@
       <c r="D4">
         <v>-0.12243</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
         <v>6.4900000000000001E-3</v>
       </c>
-      <c r="I4">
-        <v>5.5687651527439588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.15</v>
       </c>
-      <c r="I5">
-        <v>5.8218908415050468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>-2.0100000000000001E-3</v>
+      </c>
+      <c r="C5">
+        <v>-121.92910999999999</v>
+      </c>
+      <c r="D5">
+        <v>-0.11663999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>5.2399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.2</v>
       </c>
-      <c r="I6">
-        <v>6.0750165302661356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1.243E-2</v>
+      </c>
+      <c r="C6">
+        <v>-51.73977</v>
+      </c>
+      <c r="D6">
+        <v>-0.11919</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3.3899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.25</v>
       </c>
-      <c r="I7">
-        <v>6.3281422190272254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>-2.7899999999999999E-3</v>
+      </c>
+      <c r="C7">
+        <v>-28.72447</v>
+      </c>
+      <c r="D7">
+        <v>-0.11557000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.8400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.3</v>
       </c>
-      <c r="I8">
-        <v>6.5812679077883143</v>
+      <c r="B8">
+        <v>2.31E-3</v>
+      </c>
+      <c r="C8">
+        <v>-19.650379999999998</v>
+      </c>
+      <c r="D8">
+        <v>-0.11224000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>6.3600000000000002E-3</v>
       </c>
     </row>
   </sheetData>
